--- a/biology/Zoologie/Formation_d'Ischigualasto/Formation_d'Ischigualasto.xlsx
+++ b/biology/Zoologie/Formation_d'Ischigualasto/Formation_d'Ischigualasto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formation_d%27Ischigualasto</t>
+          <t>Formation_d'Ischigualasto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La formation d'Ischigualasto est une formation géologique du Trias supérieur (Carnien-Norien) située dans le nord-ouest de l'Argentine, dans le parc provincial d'Ischigualasto. Elle a livré une faune fossile abondante en vertébrés terrestres, parmi lesquels les plus anciennes espèces connues de dinosaures[1],[2],[3].
+La formation d'Ischigualasto est une formation géologique du Trias supérieur (Carnien-Norien) située dans le nord-ouest de l'Argentine, dans le parc provincial d'Ischigualasto. Elle a livré une faune fossile abondante en vertébrés terrestres, parmi lesquels les plus anciennes espèces connues de dinosaures.
 Elle appartient au groupe d'Agua de la Peña, et vient au-dessus de la formation de Los Rastros.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Formation_d%27Ischigualasto</t>
+          <t>Formation_d'Ischigualasto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Stratigraphie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette formation continentale affleurant dans le parc d'Ischigualasto de la province de San Juan en Argentine, a une puissance de 400 à 700 mètres et est constituée de dépôts gréseux fluviatiles, de mudstones de berges et de plaines d'inondation et de paléosols. Elle est divisée en quatre membres, du plus ancien au plus récent : La Peña, Cancha de Bochas, Valle de la Luna et Quebrada de la Sal[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette formation continentale affleurant dans le parc d'Ischigualasto de la province de San Juan en Argentine, a une puissance de 400 à 700 mètres et est constituée de dépôts gréseux fluviatiles, de mudstones de berges et de plaines d'inondation et de paléosols. Elle est divisée en quatre membres, du plus ancien au plus récent : La Peña, Cancha de Bochas, Valle de la Luna et Quebrada de la Sal.
 </t>
         </is>
       </c>
